--- a/tmp/町内会名簿.xlsx
+++ b/tmp/町内会名簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bbb25f73a4fe1a4/ドキュメント/町内会/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C4CA22AC-515E-4615-BC66-5E228D90D94F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1A84E8E5-786C-4924-939D-75AB466EBAEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6CAD8F-43B7-4E01-A62A-9F3527C15D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1944" yWindow="2244" windowWidth="17280" windowHeight="8976" xr2:uid="{D6244818-7D8C-47BD-9949-0DA12209FAF4}"/>
+    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11325" xr2:uid="{D6244818-7D8C-47BD-9949-0DA12209FAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="967">
   <si>
     <t>世帯主氏名</t>
     <phoneticPr fontId="3"/>
@@ -4428,20 +4428,6 @@
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>住所２</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>船橋市</t>
-    <rPh sb="0" eb="3">
-      <t>フナバシシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5223,10 +5209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAA0C87-AC52-4BE0-84DD-14F4DDFCFCF3}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5236,12 +5222,12 @@
     <col min="3" max="3" width="23.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="3"/>
-    <col min="8" max="8" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="3"/>
+    <col min="6" max="6" width="8.796875" style="3"/>
+    <col min="7" max="7" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>965</v>
       </c>
@@ -5263,11 +5249,8 @@
       <c r="G1" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5286,15 +5269,12 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f>CONCATENATE(G2,C2)</f>
+      <c r="G2" s="3" t="str">
+        <f>CONCATENATE("船橋市",C2)</f>
         <v>船橋市金杉１－２－１</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5313,15 +5293,12 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H66" si="0">CONCATENATE(G3,C3)</f>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE("船橋市",C3)</f>
         <v>船橋市金杉１－２－１０</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5340,15 +5317,12 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H4" s="3" t="str">
+      <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－２－１１</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5365,15 +5339,12 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H5" s="3" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－２－１４</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5392,15 +5363,12 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H6" s="3" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－３－２</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5417,15 +5385,12 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H7" s="3" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－３－３</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5442,15 +5407,12 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H8" s="3" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－３－５</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5469,15 +5431,12 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H9" s="3" t="str">
+      <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－３－１３</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5496,15 +5455,12 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H10" s="3" t="str">
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－１３－８</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5523,15 +5479,12 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H11" s="3" t="str">
+      <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－５</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5550,15 +5503,12 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H12" s="3" t="str">
+      <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－６</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5577,15 +5527,12 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H13" s="3" t="str">
+      <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－７</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5604,15 +5551,12 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H14" s="3" t="str">
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－８</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5631,15 +5575,12 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H15" s="3" t="str">
+      <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－１０</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5658,15 +5599,12 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H16" s="3" t="str">
+      <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－２０</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5685,15 +5623,12 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H17" s="3" t="str">
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－５－７</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5712,15 +5647,12 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H18" s="3" t="str">
+      <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－５－８</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5739,15 +5671,12 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H19" s="3" t="str">
+      <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－５－１３</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5766,15 +5695,12 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H20" s="3" t="str">
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－６－１</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5793,15 +5719,12 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H21" s="3" t="str">
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－１５－２５</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5820,15 +5743,12 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H22" s="3" t="str">
+      <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉１－４－１７</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>1</v>
       </c>
@@ -5847,15 +5767,12 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H23" s="3" t="str">
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台６－１４－１３</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>2</v>
       </c>
@@ -5874,15 +5791,12 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H24" s="3" t="str">
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台６－１４－２１</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -5901,15 +5815,12 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H25" s="3" t="str">
+      <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台６－１５－１２</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>4</v>
       </c>
@@ -5926,15 +5837,12 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H26" s="3" t="str">
+      <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１－２</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -5951,15 +5859,12 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H27" s="3" t="str">
+      <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１－５</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>6</v>
       </c>
@@ -5976,15 +5881,12 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H28" s="3" t="str">
+      <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１－７</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>7</v>
       </c>
@@ -6003,15 +5905,12 @@
       <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H29" s="3" t="str">
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１－８</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>8</v>
       </c>
@@ -6030,15 +5929,12 @@
       <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H30" s="3" t="str">
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１－１５</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>9</v>
       </c>
@@ -6057,15 +5953,12 @@
       <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H31" s="3" t="str">
+      <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－３</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>10</v>
       </c>
@@ -6084,15 +5977,12 @@
       <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H32" s="3" t="str">
+      <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－５</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>11</v>
       </c>
@@ -6111,15 +6001,12 @@
       <c r="F33" s="3">
         <v>2</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H33" s="3" t="str">
+      <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－７</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>12</v>
       </c>
@@ -6136,15 +6023,12 @@
       <c r="F34" s="3">
         <v>2</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H34" s="3" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－８</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -6161,15 +6045,12 @@
       <c r="F35" s="3">
         <v>2</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H35" s="3" t="str">
+      <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１０</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
         <v>14</v>
       </c>
@@ -6188,15 +6069,12 @@
       <c r="F36" s="3">
         <v>2</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H36" s="3" t="str">
+      <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１１</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>15</v>
       </c>
@@ -6215,15 +6093,12 @@
       <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H37" s="3" t="str">
+      <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１２</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>16</v>
       </c>
@@ -6242,15 +6117,12 @@
       <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H38" s="3" t="str">
+      <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１３</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>17</v>
       </c>
@@ -6267,15 +6139,12 @@
       <c r="F39" s="3">
         <v>2</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H39" s="3" t="str">
+      <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１４</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>18</v>
       </c>
@@ -6294,15 +6163,12 @@
       <c r="F40" s="3">
         <v>2</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H40" s="3" t="str">
+      <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－２－１５</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>19</v>
       </c>
@@ -6321,15 +6187,12 @@
       <c r="F41" s="3">
         <v>2</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H41" s="3" t="str">
+      <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－３</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>20</v>
       </c>
@@ -6348,15 +6211,12 @@
       <c r="F42" s="3">
         <v>2</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H42" s="3" t="str">
+      <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－５</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>21</v>
       </c>
@@ -6375,15 +6235,12 @@
       <c r="F43" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H43" s="3" t="str">
+      <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－６</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>22</v>
       </c>
@@ -6400,15 +6257,12 @@
       <c r="F44" s="3">
         <v>2</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H44" s="3" t="str">
+      <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－７</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>23</v>
       </c>
@@ -6427,15 +6281,12 @@
       <c r="F45" s="3">
         <v>2</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H45" s="3" t="str">
+      <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－７</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>24</v>
       </c>
@@ -6454,15 +6305,12 @@
       <c r="F46" s="3">
         <v>2</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H46" s="3" t="str">
+      <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－７</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>25</v>
       </c>
@@ -6479,15 +6327,12 @@
       <c r="F47" s="3">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H47" s="3" t="str">
+      <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－９－８</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>26</v>
       </c>
@@ -6504,15 +6349,12 @@
       <c r="F48" s="3">
         <v>2</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H48" s="3" t="str">
+      <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１０－１</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>27</v>
       </c>
@@ -6531,15 +6373,12 @@
       <c r="F49" s="3">
         <v>2</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H49" s="3" t="str">
+      <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１０－２</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>28</v>
       </c>
@@ -6556,15 +6395,12 @@
       <c r="F50" s="3">
         <v>2</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H50" s="3" t="str">
+      <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－１０－３</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>29</v>
       </c>
@@ -6583,15 +6419,12 @@
       <c r="F51" s="3">
         <v>2</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H51" s="3" t="str">
+      <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台４－２２－１５</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>30</v>
       </c>
@@ -6610,15 +6443,12 @@
       <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H52" s="3" t="str">
+      <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台４－２２－１</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>31</v>
       </c>
@@ -6637,15 +6467,12 @@
       <c r="F53" s="3">
         <v>2</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H53" s="3" t="str">
+      <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台４－２２－１</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>32</v>
       </c>
@@ -6662,15 +6489,12 @@
       <c r="F54" s="3">
         <v>2</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H54" s="3" t="str">
+      <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市夏見台４－２２－８</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -6689,15 +6513,12 @@
       <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H55" s="3" t="str">
+      <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－３－１</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -6716,15 +6537,12 @@
       <c r="F56" s="3">
         <v>3</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H56" s="3" t="str">
+      <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－３－３</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>3</v>
       </c>
@@ -6743,15 +6561,12 @@
       <c r="F57" s="3">
         <v>3</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H57" s="3" t="str">
+      <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－３－５</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -6770,15 +6585,12 @@
       <c r="F58" s="3">
         <v>3</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H58" s="3" t="str">
+      <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－４－５</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -6797,15 +6609,12 @@
       <c r="F59" s="3">
         <v>3</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H59" s="3" t="str">
+      <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－７</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>6</v>
       </c>
@@ -6822,15 +6631,12 @@
       <c r="F60" s="3">
         <v>3</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H60" s="3" t="str">
+      <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－８</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>7</v>
       </c>
@@ -6849,15 +6655,12 @@
       <c r="F61" s="3">
         <v>3</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H61" s="3" t="str">
+      <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－１０</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>8</v>
       </c>
@@ -6874,15 +6677,12 @@
       <c r="F62" s="3">
         <v>3</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H62" s="3" t="str">
+      <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－１３</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>9</v>
       </c>
@@ -6901,15 +6701,12 @@
       <c r="F63" s="3">
         <v>3</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H63" s="3" t="str">
+      <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－１５</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>10</v>
       </c>
@@ -6926,15 +6723,12 @@
       <c r="F64" s="3">
         <v>3</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H64" s="3" t="str">
+      <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－６－１６</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -6953,15 +6747,12 @@
       <c r="F65" s="3">
         <v>3</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H65" s="3" t="str">
+      <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－７－１</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>12</v>
       </c>
@@ -6980,15 +6771,12 @@
       <c r="F66" s="3">
         <v>3</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H66" s="3" t="str">
+      <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>船橋市金杉２－８－３０</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>13</v>
       </c>
@@ -7007,15 +6795,12 @@
       <c r="F67" s="3">
         <v>3</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H67" s="3" t="str">
-        <f t="shared" ref="H67:H130" si="1">CONCATENATE(G67,C67)</f>
+      <c r="G67" s="3" t="str">
+        <f t="shared" ref="G67:G130" si="1">CONCATENATE("船橋市",C67)</f>
         <v>船橋市金杉２－８－１</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>14</v>
       </c>
@@ -7032,15 +6817,12 @@
       <c r="F68" s="3">
         <v>3</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H68" s="3" t="str">
+      <c r="G68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－８－１</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>15</v>
       </c>
@@ -7057,15 +6839,12 @@
       <c r="F69" s="3">
         <v>3</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H69" s="3" t="str">
+      <c r="G69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－８－１</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>16</v>
       </c>
@@ -7084,15 +6863,12 @@
       <c r="F70" s="3">
         <v>3</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H70" s="3" t="str">
+      <c r="G70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－８－２</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>17</v>
       </c>
@@ -7109,15 +6885,12 @@
       <c r="F71" s="3">
         <v>3</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H71" s="3" t="str">
+      <c r="G71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－８－２</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>18</v>
       </c>
@@ -7136,15 +6909,12 @@
       <c r="F72" s="3">
         <v>3</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H72" s="3" t="str">
+      <c r="G72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－８－３</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>19</v>
       </c>
@@ -7163,15 +6933,12 @@
       <c r="F73" s="3">
         <v>3</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H73" s="3" t="str">
+      <c r="G73" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－９－１</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>20</v>
       </c>
@@ -7188,15 +6955,12 @@
       <c r="F74" s="3">
         <v>3</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H74" s="3" t="str">
+      <c r="G74" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－７－１８　</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>21</v>
       </c>
@@ -7215,15 +6979,12 @@
       <c r="F75" s="3">
         <v>3</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H75" s="3" t="str">
+      <c r="G75" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－７－２６</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>22</v>
       </c>
@@ -7242,15 +7003,12 @@
       <c r="F76" s="3">
         <v>3</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H76" s="3" t="str">
+      <c r="G76" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－７－３０</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>23</v>
       </c>
@@ -7269,15 +7027,12 @@
       <c r="F77" s="3">
         <v>3</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H77" s="3" t="str">
+      <c r="G77" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－８－５</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>24</v>
       </c>
@@ -7296,15 +7051,12 @@
       <c r="F78" s="3">
         <v>3</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H78" s="3" t="str">
+      <c r="G78" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－８－１９</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>25</v>
       </c>
@@ -7321,15 +7073,12 @@
       <c r="F79" s="3">
         <v>3</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H79" s="3" t="str">
+      <c r="G79" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－５－４</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>26</v>
       </c>
@@ -7346,15 +7095,12 @@
       <c r="F80" s="3">
         <v>3</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H80" s="3" t="str">
+      <c r="G80" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－５－６</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>27</v>
       </c>
@@ -7373,15 +7119,12 @@
       <c r="F81" s="3">
         <v>3</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H81" s="3" t="str">
+      <c r="G81" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉２－６－５</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -7398,15 +7141,12 @@
       <c r="F82" s="3">
         <v>3</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H82" s="3" t="str">
+      <c r="G82" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－７－２３</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>29</v>
       </c>
@@ -7423,15 +7163,12 @@
       <c r="F83" s="3">
         <v>3</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H83" s="3" t="str">
+      <c r="G83" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉町８８３－１</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>30</v>
       </c>
@@ -7448,15 +7185,12 @@
       <c r="F84" s="3">
         <v>3</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H84" s="3" t="str">
+      <c r="G84" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉町８８６</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>31</v>
       </c>
@@ -7473,15 +7207,12 @@
       <c r="F85" s="3">
         <v>3</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H85" s="3" t="str">
+      <c r="G85" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉町８８６</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>32</v>
       </c>
@@ -7500,15 +7231,12 @@
       <c r="F86" s="3">
         <v>3</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H86" s="3" t="str">
+      <c r="G86" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市馬込町１１５５－２</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>33</v>
       </c>
@@ -7527,15 +7255,12 @@
       <c r="F87" s="3">
         <v>3</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H87" s="3" t="str">
+      <c r="G87" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市馬込町１１５５－２</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>34</v>
       </c>
@@ -7552,15 +7277,12 @@
       <c r="F88" s="3">
         <v>3</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H88" s="3" t="str">
+      <c r="G88" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉１－７－１４</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -7579,15 +7301,12 @@
       <c r="F89" s="3">
         <v>4</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H89" s="3" t="str">
+      <c r="G89" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－１９</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -7606,15 +7325,12 @@
       <c r="F90" s="3">
         <v>4</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H90" s="3" t="str">
+      <c r="G90" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２０</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>3</v>
       </c>
@@ -7633,15 +7349,12 @@
       <c r="F91" s="3">
         <v>4</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H91" s="3" t="str">
+      <c r="G91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２１</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>4</v>
       </c>
@@ -7660,15 +7373,12 @@
       <c r="F92" s="3">
         <v>4</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H92" s="3" t="str">
+      <c r="G92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２１</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>5</v>
       </c>
@@ -7685,15 +7395,12 @@
       <c r="F93" s="3">
         <v>4</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H93" s="3" t="str">
+      <c r="G93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２２</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>6</v>
       </c>
@@ -7710,15 +7417,12 @@
       <c r="F94" s="3">
         <v>4</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H94" s="3" t="str">
+      <c r="G94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２３</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>7</v>
       </c>
@@ -7737,15 +7441,12 @@
       <c r="F95" s="3">
         <v>4</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H95" s="3" t="str">
+      <c r="G95" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２４</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>8</v>
       </c>
@@ -7764,15 +7465,12 @@
       <c r="F96" s="3">
         <v>4</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H96" s="3" t="str">
+      <c r="G96" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２６</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>9</v>
       </c>
@@ -7791,15 +7489,12 @@
       <c r="F97" s="3">
         <v>4</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H97" s="3" t="str">
+      <c r="G97" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２７</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>10</v>
       </c>
@@ -7818,15 +7513,12 @@
       <c r="F98" s="3">
         <v>4</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H98" s="3" t="str">
+      <c r="G98" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－２９</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>11</v>
       </c>
@@ -7843,15 +7535,12 @@
       <c r="F99" s="3">
         <v>4</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H99" s="3" t="str">
+      <c r="G99" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－３０</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>12</v>
       </c>
@@ -7870,15 +7559,12 @@
       <c r="F100" s="3">
         <v>4</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H100" s="3" t="str">
+      <c r="G100" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－３１</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>13</v>
       </c>
@@ -7897,15 +7583,12 @@
       <c r="F101" s="3">
         <v>4</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H101" s="3" t="str">
+      <c r="G101" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－３２</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>14</v>
       </c>
@@ -7924,15 +7607,12 @@
       <c r="F102" s="3">
         <v>4</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H102" s="3" t="str">
+      <c r="G102" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－３３</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>15</v>
       </c>
@@ -7949,15 +7629,12 @@
       <c r="F103" s="3">
         <v>4</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H103" s="3" t="str">
+      <c r="G103" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－３４</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>16</v>
       </c>
@@ -7976,15 +7653,12 @@
       <c r="F104" s="3">
         <v>4</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H104" s="3" t="str">
+      <c r="G104" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－４０</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>17</v>
       </c>
@@ -8003,15 +7677,12 @@
       <c r="F105" s="3">
         <v>4</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H105" s="3" t="str">
+      <c r="G105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－４１　</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>18</v>
       </c>
@@ -8030,15 +7701,12 @@
       <c r="F106" s="3">
         <v>4</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H106" s="3" t="str">
+      <c r="G106" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１０</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>19</v>
       </c>
@@ -8053,15 +7721,12 @@
       <c r="F107" s="3">
         <v>4</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H107" s="3" t="str">
+      <c r="G107" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１１</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>20</v>
       </c>
@@ -8078,15 +7743,12 @@
       <c r="F108" s="3">
         <v>4</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H108" s="3" t="str">
+      <c r="G108" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１２</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>21</v>
       </c>
@@ -8105,15 +7767,12 @@
       <c r="F109" s="3">
         <v>4</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H109" s="3" t="str">
+      <c r="G109" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１３</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>22</v>
       </c>
@@ -8132,15 +7791,12 @@
       <c r="F110" s="3">
         <v>4</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H110" s="3" t="str">
+      <c r="G110" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１４</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>23</v>
       </c>
@@ -8159,15 +7815,12 @@
       <c r="F111" s="3">
         <v>4</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H111" s="3" t="str">
+      <c r="G111" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１５</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>24</v>
       </c>
@@ -8184,15 +7837,12 @@
       <c r="F112" s="3">
         <v>4</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H112" s="3" t="str">
+      <c r="G112" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１７</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>25</v>
       </c>
@@ -8207,15 +7857,12 @@
       <c r="F113" s="3">
         <v>4</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H113" s="3" t="str">
+      <c r="G113" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１７－１</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>26</v>
       </c>
@@ -8234,15 +7881,12 @@
       <c r="F114" s="3">
         <v>4</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H114" s="3" t="str">
-        <f>CONCATENATE(G114,C114)</f>
+      <c r="G114" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１８－２</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>27</v>
       </c>
@@ -8261,15 +7905,12 @@
       <c r="F115" s="3">
         <v>4</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H115" s="3" t="str">
+      <c r="G115" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１８－１</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>28</v>
       </c>
@@ -8288,15 +7929,12 @@
       <c r="F116" s="3">
         <v>4</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H116" s="3" t="str">
+      <c r="G116" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－１９</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>29</v>
       </c>
@@ -8315,15 +7953,12 @@
       <c r="F117" s="3">
         <v>4</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H117" s="3" t="str">
+      <c r="G117" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－２６</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>30</v>
       </c>
@@ -8342,15 +7977,12 @@
       <c r="F118" s="3">
         <v>4</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H118" s="3" t="str">
+      <c r="G118" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－２７</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>31</v>
       </c>
@@ -8369,15 +8001,12 @@
       <c r="F119" s="3">
         <v>4</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H119" s="3" t="str">
+      <c r="G119" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉町８８２－３</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -8396,15 +8025,12 @@
       <c r="F120" s="3">
         <v>5</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H120" s="3" t="str">
+      <c r="G120" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－７</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -8423,15 +8049,12 @@
       <c r="F121" s="3">
         <v>5</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H121" s="3" t="str">
+      <c r="G121" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２－４３</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>3</v>
       </c>
@@ -8448,15 +8071,12 @@
       <c r="F122" s="3">
         <v>5</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H122" s="3" t="str">
+      <c r="G122" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－３－７</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>4</v>
       </c>
@@ -8475,15 +8095,12 @@
       <c r="F123" s="3">
         <v>5</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H123" s="3" t="str">
+      <c r="G123" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－３－８</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>5</v>
       </c>
@@ -8500,15 +8117,12 @@
       <c r="F124" s="3">
         <v>5</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H124" s="3" t="str">
+      <c r="G124" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－４－１０</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>6</v>
       </c>
@@ -8527,15 +8141,12 @@
       <c r="F125" s="3">
         <v>5</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H125" s="3" t="str">
+      <c r="G125" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－１９－３</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>7</v>
       </c>
@@ -8554,15 +8165,12 @@
       <c r="F126" s="3">
         <v>5</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H126" s="3" t="str">
+      <c r="G126" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－１９－５</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>8</v>
       </c>
@@ -8581,15 +8189,12 @@
       <c r="F127" s="3">
         <v>5</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H127" s="3" t="str">
+      <c r="G127" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－１９－６</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>9</v>
       </c>
@@ -8608,15 +8213,12 @@
       <c r="F128" s="3">
         <v>5</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H128" s="3" t="str">
+      <c r="G128" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－１９－８</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>10</v>
       </c>
@@ -8635,15 +8237,12 @@
       <c r="F129" s="3">
         <v>5</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H129" s="3" t="str">
+      <c r="G129" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－６</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>11</v>
       </c>
@@ -8662,15 +8261,12 @@
       <c r="F130" s="3">
         <v>5</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H130" s="3" t="str">
+      <c r="G130" s="3" t="str">
         <f t="shared" si="1"/>
         <v>船橋市金杉３－２０－７</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>12</v>
       </c>
@@ -8687,15 +8283,12 @@
       <c r="F131" s="3">
         <v>5</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H131" s="3" t="str">
-        <f t="shared" ref="H131:H194" si="2">CONCATENATE(G131,C131)</f>
+      <c r="G131" s="3" t="str">
+        <f t="shared" ref="G131:G194" si="2">CONCATENATE("船橋市",C131)</f>
         <v>船橋市金杉３－２０－８</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>13</v>
       </c>
@@ -8712,15 +8305,12 @@
       <c r="F132" s="3">
         <v>5</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H132" s="3" t="str">
+      <c r="G132" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－１－１６</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>14</v>
       </c>
@@ -8739,15 +8329,12 @@
       <c r="F133" s="3">
         <v>5</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H133" s="3" t="str">
+      <c r="G133" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－１－２１</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>15</v>
       </c>
@@ -8766,15 +8353,12 @@
       <c r="F134" s="3">
         <v>5</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H134" s="3" t="str">
+      <c r="G134" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－２－２６</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>16</v>
       </c>
@@ -8791,15 +8375,12 @@
       <c r="F135" s="3">
         <v>5</v>
       </c>
-      <c r="G135" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H135" s="3" t="str">
+      <c r="G135" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－２－２８</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>17</v>
       </c>
@@ -8818,15 +8399,12 @@
       <c r="F136" s="3">
         <v>5</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H136" s="3" t="str">
+      <c r="G136" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－７</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -8839,15 +8417,12 @@
       <c r="F137" s="3">
         <v>6</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H137" s="3" t="str">
+      <c r="G137" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -8864,15 +8439,12 @@
       <c r="F138" s="3">
         <v>6</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H138" s="3" t="str">
+      <c r="G138" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４１</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>3</v>
       </c>
@@ -8889,15 +8461,12 @@
       <c r="F139" s="3">
         <v>6</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H139" s="3" t="str">
+      <c r="G139" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４３</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>4</v>
       </c>
@@ -8914,15 +8483,12 @@
       <c r="F140" s="3">
         <v>6</v>
       </c>
-      <c r="G140" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H140" s="3" t="str">
+      <c r="G140" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４５</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>5</v>
       </c>
@@ -8939,15 +8505,12 @@
       <c r="F141" s="3">
         <v>6</v>
       </c>
-      <c r="G141" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H141" s="3" t="str">
+      <c r="G141" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４６</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>6</v>
       </c>
@@ -8964,15 +8527,12 @@
       <c r="F142" s="3">
         <v>6</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H142" s="3" t="str">
+      <c r="G142" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４７</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>7</v>
       </c>
@@ -8989,15 +8549,12 @@
       <c r="F143" s="3">
         <v>6</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H143" s="3" t="str">
+      <c r="G143" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－４８</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>8</v>
       </c>
@@ -9014,15 +8571,12 @@
       <c r="F144" s="3">
         <v>6</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H144" s="3" t="str">
+      <c r="G144" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３ー１９ー５３</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>9</v>
       </c>
@@ -9039,15 +8593,12 @@
       <c r="F145" s="3">
         <v>6</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H145" s="3" t="str">
+      <c r="G145" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－５５</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>10</v>
       </c>
@@ -9064,15 +8615,12 @@
       <c r="F146" s="3">
         <v>6</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H146" s="3" t="str">
+      <c r="G146" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－５６</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>11</v>
       </c>
@@ -9087,15 +8635,12 @@
       <c r="F147" s="3">
         <v>6</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H147" s="3" t="str">
+      <c r="G147" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－５７</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>12</v>
       </c>
@@ -9112,15 +8657,12 @@
       <c r="F148" s="3">
         <v>6</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H148" s="3" t="str">
+      <c r="G148" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－５８</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>13</v>
       </c>
@@ -9137,15 +8679,12 @@
       <c r="F149" s="3">
         <v>6</v>
       </c>
-      <c r="G149" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H149" s="3" t="str">
+      <c r="G149" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－５９</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -9164,15 +8703,12 @@
       <c r="F150" s="3">
         <v>7</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H150" s="3" t="str">
+      <c r="G150" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１５－１６</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -9189,15 +8725,12 @@
       <c r="F151" s="3">
         <v>7</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H151" s="3" t="str">
+      <c r="G151" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１６－２０</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>3</v>
       </c>
@@ -9216,15 +8749,12 @@
       <c r="F152" s="3">
         <v>7</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H152" s="3" t="str">
+      <c r="G152" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１６－２１</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>4</v>
       </c>
@@ -9243,15 +8773,12 @@
       <c r="F153" s="3">
         <v>7</v>
       </c>
-      <c r="G153" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H153" s="3" t="str">
+      <c r="G153" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>5</v>
       </c>
@@ -9270,15 +8797,12 @@
       <c r="F154" s="3">
         <v>7</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H154" s="3" t="str">
+      <c r="G154" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－３</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>6</v>
       </c>
@@ -9295,15 +8819,12 @@
       <c r="F155" s="3">
         <v>7</v>
       </c>
-      <c r="G155" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H155" s="3" t="str">
+      <c r="G155" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－５</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>7</v>
       </c>
@@ -9320,15 +8841,12 @@
       <c r="F156" s="3">
         <v>7</v>
       </c>
-      <c r="G156" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H156" s="3" t="str">
+      <c r="G156" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－８</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>8</v>
       </c>
@@ -9345,15 +8863,12 @@
       <c r="F157" s="3">
         <v>7</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H157" s="3" t="str">
+      <c r="G157" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１０</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>9</v>
       </c>
@@ -9370,15 +8885,12 @@
       <c r="F158" s="3">
         <v>7</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H158" s="3" t="str">
+      <c r="G158" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１１</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>10</v>
       </c>
@@ -9397,15 +8909,12 @@
       <c r="F159" s="3">
         <v>7</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H159" s="3" t="str">
+      <c r="G159" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１５</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>11</v>
       </c>
@@ -9424,15 +8933,12 @@
       <c r="F160" s="3">
         <v>7</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H160" s="3" t="str">
+      <c r="G160" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１６</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>12</v>
       </c>
@@ -9451,15 +8957,12 @@
       <c r="F161" s="3">
         <v>7</v>
       </c>
-      <c r="G161" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H161" s="3" t="str">
+      <c r="G161" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１７</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>13</v>
       </c>
@@ -9478,15 +8981,12 @@
       <c r="F162" s="3">
         <v>7</v>
       </c>
-      <c r="G162" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H162" s="3" t="str">
+      <c r="G162" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－１８</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>14</v>
       </c>
@@ -9505,15 +9005,12 @@
       <c r="F163" s="3">
         <v>7</v>
       </c>
-      <c r="G163" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H163" s="3" t="str">
+      <c r="G163" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－２０</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>15</v>
       </c>
@@ -9532,15 +9029,12 @@
       <c r="F164" s="3">
         <v>7</v>
       </c>
-      <c r="G164" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H164" s="3" t="str">
+      <c r="G164" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－２１</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>16</v>
       </c>
@@ -9559,15 +9053,12 @@
       <c r="F165" s="3">
         <v>7</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H165" s="3" t="str">
+      <c r="G165" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１９－３６</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="32">
         <v>17</v>
       </c>
@@ -9584,15 +9075,12 @@
       <c r="F166" s="3">
         <v>7</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H166" s="3" t="str">
+      <c r="G166" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－７</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="9">
         <v>18</v>
       </c>
@@ -9609,15 +9097,12 @@
       <c r="F167" s="3">
         <v>7</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H167" s="3" t="str">
+      <c r="G167" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－２</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="34">
         <v>19</v>
       </c>
@@ -9634,15 +9119,12 @@
       <c r="F168" s="3">
         <v>7</v>
       </c>
-      <c r="G168" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H168" s="3" t="str">
+      <c r="G168" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１８－９</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -9661,15 +9143,12 @@
       <c r="F169" s="3">
         <v>8</v>
       </c>
-      <c r="G169" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H169" s="3" t="str">
+      <c r="G169" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－３－１</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>2</v>
       </c>
@@ -9688,15 +9167,12 @@
       <c r="F170" s="3">
         <v>8</v>
       </c>
-      <c r="G170" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H170" s="3" t="str">
+      <c r="G170" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－３－２</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>3</v>
       </c>
@@ -9713,15 +9189,12 @@
       <c r="F171" s="3">
         <v>8</v>
       </c>
-      <c r="G171" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H171" s="3" t="str">
+      <c r="G171" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－３－１７</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>4</v>
       </c>
@@ -9740,15 +9213,12 @@
       <c r="F172" s="3">
         <v>8</v>
       </c>
-      <c r="G172" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H172" s="3" t="str">
+      <c r="G172" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－３－１８</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>5</v>
       </c>
@@ -9767,15 +9237,12 @@
       <c r="F173" s="3">
         <v>8</v>
       </c>
-      <c r="G173" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H173" s="3" t="str">
+      <c r="G173" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－４－５</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>6</v>
       </c>
@@ -9792,15 +9259,12 @@
       <c r="F174" s="3">
         <v>8</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H174" s="3" t="str">
+      <c r="G174" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－４－６</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>7</v>
       </c>
@@ -9817,15 +9281,12 @@
       <c r="F175" s="3">
         <v>8</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H175" s="3" t="str">
+      <c r="G175" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－６－９</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>8</v>
       </c>
@@ -9844,15 +9305,12 @@
       <c r="F176" s="3">
         <v>8</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H176" s="3" t="str">
+      <c r="G176" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１１－１０</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>9</v>
       </c>
@@ -9871,15 +9329,12 @@
       <c r="F177" s="3">
         <v>8</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H177" s="3" t="str">
+      <c r="G177" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１１－１１</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>10</v>
       </c>
@@ -9898,15 +9353,12 @@
       <c r="F178" s="3">
         <v>8</v>
       </c>
-      <c r="G178" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H178" s="3" t="str">
+      <c r="G178" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１１－１２</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>11</v>
       </c>
@@ -9925,15 +9377,12 @@
       <c r="F179" s="3">
         <v>8</v>
       </c>
-      <c r="G179" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H179" s="3" t="str">
+      <c r="G179" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１５－１</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>12</v>
       </c>
@@ -9952,15 +9401,12 @@
       <c r="F180" s="3">
         <v>8</v>
       </c>
-      <c r="G180" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H180" s="3" t="str">
+      <c r="G180" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１６－１８</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>13</v>
       </c>
@@ -9979,15 +9425,12 @@
       <c r="F181" s="3">
         <v>8</v>
       </c>
-      <c r="G181" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H181" s="3" t="str">
+      <c r="G181" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１６－３１</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>14</v>
       </c>
@@ -10006,15 +9449,12 @@
       <c r="F182" s="3">
         <v>8</v>
       </c>
-      <c r="G182" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H182" s="3" t="str">
+      <c r="G182" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１７－１</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>15</v>
       </c>
@@ -10033,15 +9473,12 @@
       <c r="F183" s="3">
         <v>8</v>
       </c>
-      <c r="G183" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H183" s="3" t="str">
+      <c r="G183" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－５－２２</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>16</v>
       </c>
@@ -10058,15 +9495,12 @@
       <c r="F184" s="3">
         <v>8</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H184" s="3" t="str">
+      <c r="G184" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－１６－３２</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -10085,15 +9519,12 @@
       <c r="F185" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H185" s="3" t="str">
+      <c r="G185" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－６－５</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
         <v>2</v>
       </c>
@@ -10112,15 +9543,12 @@
       <c r="F186" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H186" s="3" t="str">
+      <c r="G186" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－６－７</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
         <v>3</v>
       </c>
@@ -10137,15 +9565,12 @@
       <c r="F187" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H187" s="3" t="str">
+      <c r="G187" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－６－８</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
         <v>4</v>
       </c>
@@ -10164,15 +9589,12 @@
       <c r="F188" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G188" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H188" s="3" t="str">
+      <c r="G188" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉３－６－１０</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
         <v>5</v>
       </c>
@@ -10191,15 +9613,12 @@
       <c r="F189" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G189" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H189" s="3" t="str">
+      <c r="G189" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－１</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
         <v>6</v>
       </c>
@@ -10218,15 +9637,12 @@
       <c r="F190" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G190" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H190" s="3" t="str">
+      <c r="G190" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－２</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
         <v>7</v>
       </c>
@@ -10245,15 +9661,12 @@
       <c r="F191" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H191" s="3" t="str">
+      <c r="G191" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－３</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
         <v>8</v>
       </c>
@@ -10272,15 +9685,12 @@
       <c r="F192" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H192" s="3" t="str">
+      <c r="G192" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－５</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
         <v>9</v>
       </c>
@@ -10297,15 +9707,12 @@
       <c r="F193" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H193" s="3" t="str">
+      <c r="G193" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－６</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
         <v>10</v>
       </c>
@@ -10322,15 +9729,12 @@
       <c r="F194" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G194" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H194" s="3" t="str">
+      <c r="G194" s="3" t="str">
         <f t="shared" si="2"/>
         <v>船橋市金杉９－６－７</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
         <v>11</v>
       </c>
@@ -10347,15 +9751,12 @@
       <c r="F195" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G195" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H195" s="3" t="str">
-        <f t="shared" ref="H195:H258" si="3">CONCATENATE(G195,C195)</f>
+      <c r="G195" s="3" t="str">
+        <f t="shared" ref="G195:G258" si="3">CONCATENATE("船橋市",C195)</f>
         <v>船橋市金杉９－６－９</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
         <v>12</v>
       </c>
@@ -10372,15 +9773,12 @@
       <c r="F196" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G196" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H196" s="3" t="str">
+      <c r="G196" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－６－１６</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
         <v>13</v>
       </c>
@@ -10397,15 +9795,12 @@
       <c r="F197" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H197" s="3" t="str">
+      <c r="G197" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－６－１５</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
         <v>14</v>
       </c>
@@ -10422,15 +9817,12 @@
       <c r="F198" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G198" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H198" s="3" t="str">
+      <c r="G198" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－６－１７</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
         <v>15</v>
       </c>
@@ -10447,15 +9839,12 @@
       <c r="F199" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G199" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H199" s="3" t="str">
+      <c r="G199" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－６－１８</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
         <v>16</v>
       </c>
@@ -10474,15 +9863,12 @@
       <c r="F200" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G200" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H200" s="3" t="str">
+      <c r="G200" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－７－１</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
         <v>17</v>
       </c>
@@ -10499,15 +9885,12 @@
       <c r="F201" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G201" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H201" s="3" t="str">
+      <c r="G201" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－７－２５</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>18</v>
       </c>
@@ -10524,15 +9907,12 @@
       <c r="F202" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G202" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H202" s="3" t="str">
+      <c r="G202" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－１０</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
         <v>19</v>
       </c>
@@ -10551,15 +9931,12 @@
       <c r="F203" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G203" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H203" s="3" t="str">
+      <c r="G203" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－２２</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>20</v>
       </c>
@@ -10576,15 +9953,12 @@
       <c r="F204" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G204" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H204" s="3" t="str">
+      <c r="G204" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－２３</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
         <v>21</v>
       </c>
@@ -10601,15 +9975,12 @@
       <c r="F205" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G205" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H205" s="3" t="str">
+      <c r="G205" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３０</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
         <v>22</v>
       </c>
@@ -10626,15 +9997,12 @@
       <c r="F206" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G206" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H206" s="3" t="str">
+      <c r="G206" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３１</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="2">
         <v>23</v>
       </c>
@@ -10649,15 +10017,12 @@
       <c r="F207" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G207" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H207" s="3" t="str">
+      <c r="G207" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３２</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
         <v>24</v>
       </c>
@@ -10674,15 +10039,12 @@
       <c r="F208" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G208" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H208" s="3" t="str">
+      <c r="G208" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３３</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="2">
         <v>25</v>
       </c>
@@ -10701,15 +10063,12 @@
       <c r="F209" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="G209" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H209" s="3" t="str">
+      <c r="G209" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１４－１</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -10728,15 +10087,12 @@
       <c r="F210" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G210" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H210" s="3" t="str">
+      <c r="G210" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－７－８</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="2">
         <v>2</v>
       </c>
@@ -10755,15 +10111,12 @@
       <c r="F211" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G211" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H211" s="3" t="str">
+      <c r="G211" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－６</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="2">
         <v>3</v>
       </c>
@@ -10782,15 +10135,12 @@
       <c r="F212" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G212" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H212" s="3" t="str">
+      <c r="G212" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－８</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="2">
         <v>4</v>
       </c>
@@ -10807,15 +10157,12 @@
       <c r="F213" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G213" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H213" s="3" t="str">
+      <c r="G213" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３５</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
         <v>5</v>
       </c>
@@ -10832,15 +10179,12 @@
       <c r="F214" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G214" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H214" s="3" t="str">
+      <c r="G214" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３６</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="2">
         <v>6</v>
       </c>
@@ -10857,15 +10201,12 @@
       <c r="F215" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G215" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H215" s="3" t="str">
+      <c r="G215" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３７</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="2">
         <v>7</v>
       </c>
@@ -10882,15 +10223,12 @@
       <c r="F216" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G216" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H216" s="3" t="str">
+      <c r="G216" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３８</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="2">
         <v>8</v>
       </c>
@@ -10907,15 +10245,12 @@
       <c r="F217" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G217" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H217" s="3" t="str">
+      <c r="G217" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３９</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="2">
         <v>9</v>
       </c>
@@ -10932,15 +10267,12 @@
       <c r="F218" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G218" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H218" s="3" t="str">
+      <c r="G218" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４０</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="2">
         <v>10</v>
       </c>
@@ -10957,15 +10289,12 @@
       <c r="F219" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G219" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H219" s="3" t="str">
+      <c r="G219" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４１</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="2">
         <v>11</v>
       </c>
@@ -10982,15 +10311,12 @@
       <c r="F220" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G220" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H220" s="3" t="str">
+      <c r="G220" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４３</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="2">
         <v>12</v>
       </c>
@@ -11007,15 +10333,12 @@
       <c r="F221" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G221" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H221" s="3" t="str">
+      <c r="G221" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４７</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="2">
         <v>13</v>
       </c>
@@ -11030,15 +10353,12 @@
       <c r="F222" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G222" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H222" s="3" t="str">
+      <c r="G222" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４８</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="2">
         <v>14</v>
       </c>
@@ -11055,15 +10375,12 @@
       <c r="F223" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G223" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H223" s="3" t="str">
+      <c r="G223" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－５０</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="2">
         <v>15</v>
       </c>
@@ -11082,15 +10399,12 @@
       <c r="F224" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G224" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H224" s="3" t="str">
+      <c r="G224" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－１</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="2">
         <v>16</v>
       </c>
@@ -11107,15 +10421,12 @@
       <c r="F225" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G225" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H225" s="3" t="str">
+      <c r="G225" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－２</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="2">
         <v>17</v>
       </c>
@@ -11132,15 +10443,12 @@
       <c r="F226" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G226" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H226" s="3" t="str">
+      <c r="G226" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－７</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="2">
         <v>18</v>
       </c>
@@ -11159,15 +10467,12 @@
       <c r="F227" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G227" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H227" s="3" t="str">
+      <c r="G227" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－８</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="2">
         <v>19</v>
       </c>
@@ -11186,15 +10491,12 @@
       <c r="F228" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G228" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H228" s="3" t="str">
+      <c r="G228" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－９</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A229" s="2">
         <v>20</v>
       </c>
@@ -11213,15 +10515,12 @@
       <c r="F229" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G229" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H229" s="3" t="str">
+      <c r="G229" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－１９－１１</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="2">
         <v>21</v>
       </c>
@@ -11238,15 +10537,12 @@
       <c r="F230" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G230" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H230" s="3" t="str">
+      <c r="G230" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－４６</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="2">
         <v>22</v>
       </c>
@@ -11263,15 +10559,12 @@
       <c r="F231" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G231" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H231" s="3" t="str">
+      <c r="G231" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－５２</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="2">
         <v>23</v>
       </c>
@@ -11288,15 +10581,12 @@
       <c r="F232" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="G232" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H232" s="3" t="str">
+      <c r="G232" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－８－３４</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -11315,15 +10605,12 @@
       <c r="F233" s="3">
         <v>10</v>
       </c>
-      <c r="G233" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H233" s="3" t="str">
+      <c r="G233" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－３１</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="2">
         <v>2</v>
       </c>
@@ -11342,15 +10629,12 @@
       <c r="F234" s="3">
         <v>10</v>
       </c>
-      <c r="G234" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H234" s="3" t="str">
+      <c r="G234" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－３５</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="2">
         <v>3</v>
       </c>
@@ -11367,15 +10651,12 @@
       <c r="F235" s="3">
         <v>10</v>
       </c>
-      <c r="G235" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H235" s="3" t="str">
+      <c r="G235" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－３６</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" s="2">
         <v>4</v>
       </c>
@@ -11394,15 +10675,12 @@
       <c r="F236" s="3">
         <v>10</v>
       </c>
-      <c r="G236" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H236" s="3" t="str">
+      <c r="G236" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－３７</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" s="2">
         <v>5</v>
       </c>
@@ -11419,15 +10697,12 @@
       <c r="F237" s="3">
         <v>10</v>
       </c>
-      <c r="G237" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H237" s="3" t="str">
+      <c r="G237" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－５</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" s="2">
         <v>6</v>
       </c>
@@ -11444,15 +10719,12 @@
       <c r="F238" s="3">
         <v>10</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H238" s="3" t="str">
+      <c r="G238" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－６</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" s="2">
         <v>7</v>
       </c>
@@ -11469,15 +10741,12 @@
       <c r="F239" s="3">
         <v>10</v>
       </c>
-      <c r="G239" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H239" s="3" t="str">
+      <c r="G239" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－９</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" s="2">
         <v>8</v>
       </c>
@@ -11496,15 +10765,12 @@
       <c r="F240" s="3">
         <v>10</v>
       </c>
-      <c r="G240" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H240" s="3" t="str">
+      <c r="G240" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－１９</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" s="2">
         <v>9</v>
       </c>
@@ -11521,15 +10787,12 @@
       <c r="F241" s="3">
         <v>10</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H241" s="3" t="str">
+      <c r="G241" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２４</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" s="2">
         <v>10</v>
       </c>
@@ -11548,15 +10811,12 @@
       <c r="F242" s="3">
         <v>10</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H242" s="3" t="str">
+      <c r="G242" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２５</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" s="2">
         <v>11</v>
       </c>
@@ -11573,15 +10833,12 @@
       <c r="F243" s="3">
         <v>10</v>
       </c>
-      <c r="G243" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H243" s="3" t="str">
+      <c r="G243" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２６</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="2">
         <v>12</v>
       </c>
@@ -11598,15 +10855,12 @@
       <c r="F244" s="3">
         <v>10</v>
       </c>
-      <c r="G244" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H244" s="3" t="str">
+      <c r="G244" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－５－１</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="2">
         <v>13</v>
       </c>
@@ -11625,15 +10879,12 @@
       <c r="F245" s="3">
         <v>10</v>
       </c>
-      <c r="G245" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H245" s="3" t="str">
+      <c r="G245" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－５－３</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="2">
         <v>14</v>
       </c>
@@ -11652,15 +10903,12 @@
       <c r="F246" s="3">
         <v>10</v>
       </c>
-      <c r="G246" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H246" s="3" t="str">
+      <c r="G246" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－５－１０</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" s="2">
         <v>15</v>
       </c>
@@ -11677,15 +10925,12 @@
       <c r="F247" s="3">
         <v>10</v>
       </c>
-      <c r="G247" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H247" s="3" t="str">
+      <c r="G247" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－５－１３</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" s="2">
         <v>16</v>
       </c>
@@ -11704,15 +10949,12 @@
       <c r="F248" s="3">
         <v>10</v>
       </c>
-      <c r="G248" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H248" s="3" t="str">
+      <c r="G248" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－２３－１</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" s="2">
         <v>17</v>
       </c>
@@ -11729,15 +10971,12 @@
       <c r="F249" s="3">
         <v>10</v>
       </c>
-      <c r="G249" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H249" s="3" t="str">
+      <c r="G249" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－２３－２</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" s="2">
         <v>18</v>
       </c>
@@ -11754,15 +10993,12 @@
       <c r="F250" s="3">
         <v>10</v>
       </c>
-      <c r="G250" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H250" s="3" t="str">
+      <c r="G250" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－２３－３</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" s="2">
         <v>19</v>
       </c>
@@ -11779,15 +11015,12 @@
       <c r="F251" s="3">
         <v>10</v>
       </c>
-      <c r="G251" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H251" s="3" t="str">
+      <c r="G251" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－３２</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" s="2">
         <v>20</v>
       </c>
@@ -11802,15 +11035,12 @@
       <c r="F252" s="3">
         <v>10</v>
       </c>
-      <c r="G252" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H252" s="3" t="str">
+      <c r="G252" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２９</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" s="2">
         <v>21</v>
       </c>
@@ -11827,15 +11057,12 @@
       <c r="F253" s="3">
         <v>10</v>
       </c>
-      <c r="G253" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H253" s="3" t="str">
+      <c r="G253" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－１８</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" s="2">
         <v>22</v>
       </c>
@@ -11850,15 +11077,12 @@
       <c r="F254" s="3">
         <v>10</v>
       </c>
-      <c r="G254" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H254" s="3" t="str">
+      <c r="G254" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２０</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" s="2">
         <v>23</v>
       </c>
@@ -11873,15 +11097,12 @@
       <c r="F255" s="3">
         <v>10</v>
       </c>
-      <c r="G255" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H255" s="3" t="str">
+      <c r="G255" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－２８</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" s="2">
         <v>24</v>
       </c>
@@ -11898,15 +11119,12 @@
       <c r="F256" s="3">
         <v>10</v>
       </c>
-      <c r="G256" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H256" s="3" t="str">
+      <c r="G256" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－３－３０</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="32">
         <v>25</v>
       </c>
@@ -11923,15 +11141,12 @@
       <c r="F257" s="3">
         <v>10</v>
       </c>
-      <c r="G257" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H257" s="3" t="str">
+      <c r="G257" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－８</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="34">
         <v>26</v>
       </c>
@@ -11948,15 +11163,12 @@
       <c r="F258" s="3">
         <v>10</v>
       </c>
-      <c r="G258" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H258" s="3" t="str">
+      <c r="G258" s="3" t="str">
         <f t="shared" si="3"/>
         <v>船橋市金杉９－４－２２</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="2">
         <v>1</v>
       </c>
@@ -11973,15 +11185,12 @@
       <c r="F259" s="3">
         <v>11</v>
       </c>
-      <c r="G259" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H259" s="3" t="str">
-        <f t="shared" ref="H259:H294" si="4">CONCATENATE(G259,C259)</f>
+      <c r="G259" s="3" t="str">
+        <f t="shared" ref="G259:G294" si="4">CONCATENATE("船橋市",C259)</f>
         <v>船橋市金杉３－１－３</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="2">
         <v>2</v>
       </c>
@@ -11998,15 +11207,12 @@
       <c r="F260" s="3">
         <v>11</v>
       </c>
-      <c r="G260" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H260" s="3" t="str">
+      <c r="G260" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉３－１－６</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="2">
         <v>3</v>
       </c>
@@ -12025,15 +11231,12 @@
       <c r="F261" s="3">
         <v>11</v>
       </c>
-      <c r="G261" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H261" s="3" t="str">
+      <c r="G261" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉３－１－７</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="2">
         <v>4</v>
       </c>
@@ -12052,15 +11255,12 @@
       <c r="F262" s="3">
         <v>11</v>
       </c>
-      <c r="G262" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H262" s="3" t="str">
+      <c r="G262" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉３－１－８</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="2">
         <v>5</v>
       </c>
@@ -12079,15 +11279,12 @@
       <c r="F263" s="3">
         <v>11</v>
       </c>
-      <c r="G263" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H263" s="3" t="str">
+      <c r="G263" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－１－１２</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="2">
         <v>6</v>
       </c>
@@ -12104,15 +11301,12 @@
       <c r="F264" s="3">
         <v>11</v>
       </c>
-      <c r="G264" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H264" s="3" t="str">
+      <c r="G264" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－７</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="2">
         <v>7</v>
       </c>
@@ -12129,15 +11323,12 @@
       <c r="F265" s="3">
         <v>11</v>
       </c>
-      <c r="G265" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H265" s="3" t="str">
+      <c r="G265" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－８</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="2">
         <v>8</v>
       </c>
@@ -12154,15 +11345,12 @@
       <c r="F266" s="3">
         <v>11</v>
       </c>
-      <c r="G266" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H266" s="3" t="str">
+      <c r="G266" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－９</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="2">
         <v>9</v>
       </c>
@@ -12179,15 +11367,12 @@
       <c r="F267" s="3">
         <v>11</v>
       </c>
-      <c r="G267" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H267" s="3" t="str">
+      <c r="G267" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－１０</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="2">
         <v>10</v>
       </c>
@@ -12204,15 +11389,12 @@
       <c r="F268" s="3">
         <v>11</v>
       </c>
-      <c r="G268" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H268" s="3" t="str">
+      <c r="G268" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－１７</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="2">
         <v>11</v>
       </c>
@@ -12229,15 +11411,12 @@
       <c r="F269" s="3">
         <v>11</v>
       </c>
-      <c r="G269" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H269" s="3" t="str">
+      <c r="G269" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－１８</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="2">
         <v>12</v>
       </c>
@@ -12254,15 +11433,12 @@
       <c r="F270" s="3">
         <v>11</v>
       </c>
-      <c r="G270" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H270" s="3" t="str">
+      <c r="G270" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－２０</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="2">
         <v>13</v>
       </c>
@@ -12281,15 +11457,12 @@
       <c r="F271" s="3">
         <v>11</v>
       </c>
-      <c r="G271" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H271" s="3" t="str">
+      <c r="G271" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－２１</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="2">
         <v>14</v>
       </c>
@@ -12306,15 +11479,12 @@
       <c r="F272" s="3">
         <v>11</v>
       </c>
-      <c r="G272" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H272" s="3" t="str">
+      <c r="G272" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－２９</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" s="2">
         <v>15</v>
       </c>
@@ -12331,15 +11501,12 @@
       <c r="F273" s="3">
         <v>11</v>
       </c>
-      <c r="G273" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H273" s="3" t="str">
+      <c r="G273" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－３０</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" s="2">
         <v>16</v>
       </c>
@@ -12356,15 +11523,12 @@
       <c r="F274" s="3">
         <v>11</v>
       </c>
-      <c r="G274" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H274" s="3" t="str">
+      <c r="G274" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－３１</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" s="2">
         <v>17</v>
       </c>
@@ -12381,15 +11545,12 @@
       <c r="F275" s="3">
         <v>11</v>
       </c>
-      <c r="G275" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H275" s="3" t="str">
+      <c r="G275" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－３３</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" s="2">
         <v>18</v>
       </c>
@@ -12406,15 +11567,12 @@
       <c r="F276" s="3">
         <v>11</v>
       </c>
-      <c r="G276" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H276" s="3" t="str">
+      <c r="G276" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－３４</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="2">
         <v>19</v>
       </c>
@@ -12431,15 +11589,12 @@
       <c r="F277" s="3">
         <v>11</v>
       </c>
-      <c r="G277" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H277" s="3" t="str">
+      <c r="G277" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－２</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="2">
         <v>20</v>
       </c>
@@ -12456,15 +11611,12 @@
       <c r="F278" s="3">
         <v>11</v>
       </c>
-      <c r="G278" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H278" s="3" t="str">
+      <c r="G278" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－３</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" s="2">
         <v>21</v>
       </c>
@@ -12483,15 +11635,12 @@
       <c r="F279" s="3">
         <v>11</v>
       </c>
-      <c r="G279" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H279" s="3" t="str">
+      <c r="G279" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－５</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" s="2">
         <v>22</v>
       </c>
@@ -12510,15 +11659,12 @@
       <c r="F280" s="3">
         <v>11</v>
       </c>
-      <c r="G280" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H280" s="3" t="str">
+      <c r="G280" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－６</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" s="2">
         <v>23</v>
       </c>
@@ -12537,15 +11683,12 @@
       <c r="F281" s="3">
         <v>11</v>
       </c>
-      <c r="G281" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H281" s="3" t="str">
+      <c r="G281" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－１５</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" s="2">
         <v>24</v>
       </c>
@@ -12564,15 +11707,12 @@
       <c r="F282" s="3">
         <v>11</v>
       </c>
-      <c r="G282" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H282" s="3" t="str">
+      <c r="G282" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－１９</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" s="2">
         <v>25</v>
       </c>
@@ -12591,15 +11731,12 @@
       <c r="F283" s="3">
         <v>11</v>
       </c>
-      <c r="G283" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H283" s="3" t="str">
+      <c r="G283" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－２０</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" s="2">
         <v>26</v>
       </c>
@@ -12616,15 +11753,12 @@
       <c r="F284" s="3">
         <v>11</v>
       </c>
-      <c r="G284" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H284" s="3" t="str">
+      <c r="G284" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－１－１３</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" s="2">
         <v>27</v>
       </c>
@@ -12641,15 +11775,12 @@
       <c r="F285" s="3">
         <v>11</v>
       </c>
-      <c r="G285" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H285" s="3" t="str">
+      <c r="G285" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉３－１－４</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" s="2">
         <v>28</v>
       </c>
@@ -12666,15 +11797,12 @@
       <c r="F286" s="3">
         <v>11</v>
       </c>
-      <c r="G286" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H286" s="3" t="str">
+      <c r="G286" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－３－１</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" s="2">
         <v>29</v>
       </c>
@@ -12693,15 +11821,12 @@
       <c r="F287" s="3">
         <v>11</v>
       </c>
-      <c r="G287" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H287" s="3" t="str">
+      <c r="G287" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２－６</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" s="48">
         <v>1</v>
       </c>
@@ -12720,15 +11845,12 @@
       <c r="F288" s="3">
         <v>12</v>
       </c>
-      <c r="G288" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H288" s="3" t="str">
+      <c r="G288" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－９－３</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" s="48">
         <v>2</v>
       </c>
@@ -12745,15 +11867,12 @@
       <c r="F289" s="3">
         <v>12</v>
       </c>
-      <c r="G289" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H289" s="3" t="str">
+      <c r="G289" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－９－６</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" s="48">
         <v>3</v>
       </c>
@@ -12770,15 +11889,12 @@
       <c r="F290" s="3">
         <v>12</v>
       </c>
-      <c r="G290" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H290" s="3" t="str">
+      <c r="G290" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－９－７</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" s="48">
         <v>4</v>
       </c>
@@ -12795,15 +11911,12 @@
       <c r="F291" s="3">
         <v>12</v>
       </c>
-      <c r="G291" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H291" s="3" t="str">
+      <c r="G291" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－９－８</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" s="48">
         <v>5</v>
       </c>
@@ -12820,15 +11933,12 @@
       <c r="F292" s="3">
         <v>12</v>
       </c>
-      <c r="G292" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H292" s="3" t="str">
+      <c r="G292" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－９－１２</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A293" s="48">
         <v>6</v>
       </c>
@@ -12847,15 +11957,12 @@
       <c r="F293" s="3">
         <v>12</v>
       </c>
-      <c r="G293" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H293" s="3" t="str">
+      <c r="G293" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉１－３５－１５</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A294" s="48">
         <v>7</v>
       </c>
@@ -12874,10 +11981,7 @@
       <c r="F294" s="3">
         <v>12</v>
       </c>
-      <c r="G294" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H294" s="3" t="str">
+      <c r="G294" s="3" t="str">
         <f t="shared" si="4"/>
         <v>船橋市金杉９－２４－１４</v>
       </c>
@@ -12885,5 +11989,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tmp/町内会名簿.xlsx
+++ b/tmp/町内会名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6CAD8F-43B7-4E01-A62A-9F3527C15D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348654AB-6168-48BF-A0B6-7B5AA449D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11325" xr2:uid="{D6244818-7D8C-47BD-9949-0DA12209FAF4}"/>
+    <workbookView xWindow="5760" yWindow="1056" windowWidth="17280" windowHeight="8976" xr2:uid="{D6244818-7D8C-47BD-9949-0DA12209FAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5211,8 +5211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAA0C87-AC52-4BE0-84DD-14F4DDFCFCF3}">
   <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
